--- a/similarities/split_global/harmonic_similarity_timestamps_263.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_263.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_16</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_9</t>
+          <t>schubert-winterreise_90</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:7', 'A']]</t>
+          <t>['F:maj', 'A#:maj/F', 'F:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:7', 'F']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:42.960000', '0:00:45.780000')]</t>
+          <t>('0:00:17.340000', '0:00:24.400000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:50.360000', '0:00:57.040000')]</t>
+          <t>('0:02:34.760000', '0:02:39.840000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=42.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-9#t=50.36']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>jaah_4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['C:min7', 'F:min7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C', 'F']]</t>
+          <t>['F:min7', 'Bb:min7', 'Eb:7', 'Ab/3']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:02:08.760000', '0:02:14')]</t>
+          <t>('0:00:16.910000', '0:00:20.040000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:10.634761', '0:00:19.597664')]</t>
+          <t>('0:00:22.570000', '0:00:30.010000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=16.91</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=22.57</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>isophonics_162</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:46.640000')]</t>
+          <t>('0:00:28.450816', '0:00:40.095623')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:31.740000', '0:00:33.880000')]</t>
+          <t>('0:01:02.530000', '0:01:09.910000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=41.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=28.450816</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=31.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>isophonics_166</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['F#:7/B', 'B:min', 'E:min/B']]</t>
+          <t>['C:maj', 'F:maj/A', 'C:7']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C'], ['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['D', 'G', 'D:7']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:13.420000', '0:00:19.500000'), ('0:00:23.140000', '0:00:30.460000')]</t>
+          <t>('0:00:15.060000', '0:00:17.940000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:47.020000', '0:00:51.380000'), ('0:00:24.580000', '0:00:32.940000')]</t>
+          <t>('0:00:19.139614', '0:00:32.700068')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=23.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=15.06</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=24.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-166#t=19.139614</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D']]</t>
+          <t>['E:7', 'A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G', 'G:7', 'C', 'G']]</t>
+          <t>['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:59.400000', '0:01:09.760000')]</t>
+          <t>('0:00:07.360000', '0:00:19.880000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:58.265237', '0:01:08.830317')]</t>
+          <t>('0:00:23.040000', '0:00:32.800000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=59.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=7.36</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=58.265237']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=23.04</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:01.180000', '0:00:06.140000'), ('0:00:09.260000', '0:00:13.900000')]</t>
+          <t>('0:00:56.720000', '0:00:58.880000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.980000', '0:00:06.140000'), ('0:02:11.200000', '0:02:16.340000')]</t>
+          <t>('0:00:06.774988', '0:00:12.022698')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=1.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=9.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=6.774988</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:37.995918', '0:00:46.610521')]</t>
+          <t>('0:00:21.940000', '0:00:27.520000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:54.180000', '0:01:01.460000')]</t>
+          <t>('0:00:41.380000', '0:00:43.340000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=21.94</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.38</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>isophonics_243</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['E', 'C#:min', 'A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
+          <t>['Ab/7', 'F:min', 'Db:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:01.880000', '0:01:07.800000')]</t>
+          <t>('0:00:04.279353', '0:00:08.853684')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:40.740000', '0:02:01.400000')]</t>
+          <t>('0:00:57.388000', '0:01:02.385000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=61.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-243#t=4.279353</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=100.74']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=57.388</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7/C', 'A#'], ['G#/C', 'D#', 'G#']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7', 'Bb'], ['Ab/5', 'Eb', 'Ab/5']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:43.120000', '0:00:46.120000'), ('0:00:57.840000', '0:01:02.900000')]</t>
+          <t>('0:00:13.740000', '0:00:22.560000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:26.660000', '0:00:30.531000'), ('0:00:18.978000', '0:00:24.727000')]</t>
+          <t>('0:00:00.340000', '0:00:04.840000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=43.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=57.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=13.74</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-1#t=26.66', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-1#t=18.978']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=0.34</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>isophonics_59</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['G', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:52.740000', '0:01:04.440000')]</t>
+          <t>('0:00:14.628775', '0:00:26.430680')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:11.070127', '0:00:14.541510')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=11.070127']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F#:maj', 'C#:7/F', 'F#:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>['C:maj/E', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
+          <t>('0:00:34.380000', '0:00:38.520000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+          <t>('0:00:38.900000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=34.38</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=38.9</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>jaah_5</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>jaah_56</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D/3']]</t>
+          <t>['G:7', 'C:min7', 'F:7']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'D']]</t>
+          <t>['F:7', 'Bb:min7', 'Eb:7']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:09.336000', '0:00:13.342000')]</t>
+          <t>('0:00:19.550000', '0:00:22.230000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:37.239569', '0:00:40.954761')]</t>
+          <t>('0:00:15.930000', '0:00:17.560000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=9.336']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-5#t=19.55</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=37.239569']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=15.93</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>isophonics_115</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['Bb', 'Bb:min', 'F']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['Db', 'Db:min', 'Ab']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+          <t>('0:00:39.610440', '0:00:45.427039')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:01.150000', '0:00:05.734000')]</t>
+          <t>('0:02:09.120000', '0:02:11.120000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-115#t=39.61044</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=1.15']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=129.12</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>isophonics_43</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj']]</t>
+          <t>['B', 'E', 'B', 'E']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:07.590000', '0:00:14.680000')]</t>
+          <t>('0:00:08.900000', '0:00:11.160000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:10.360000')]</t>
+          <t>('0:00:00.459543', '0:00:13.717755')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=8.9</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=1.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=0.459543</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:06.840000', '0:00:16.080000')]</t>
+          <t>('0:00:57.480000', '0:01:04.580000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:06.060000', '0:01:08.180000')]</t>
+          <t>('0:00:06.774988', '0:00:12.022698')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=6.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=6.774988</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
